--- a/plot/noise_mrr.xlsx
+++ b/plot/noise_mrr.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lh562\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53A3A1CD-865E-45B0-B9B9-1B97E8DAF0DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F327ACE-9613-40B7-BB0E-2BD6A0A0F164}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{0ADCFB68-9191-454B-940C-88CB705285F5}"/>
+    <workbookView xWindow="1110" yWindow="2160" windowWidth="16180" windowHeight="9970" xr2:uid="{0ADCFB68-9191-454B-940C-88CB705285F5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -510,65 +510,65 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
+      <c r="A2" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="B2" s="2">
-        <v>0.26219999999999999</v>
+        <v>0.20250000000000001</v>
       </c>
       <c r="C2" s="2">
-        <v>0.26569999999999999</v>
+        <v>0.2044</v>
       </c>
       <c r="D2" s="2">
-        <v>0.26200000000000001</v>
+        <v>0.2147</v>
       </c>
       <c r="E2" s="2">
-        <v>0.24210000000000001</v>
+        <v>0.20419999999999999</v>
       </c>
       <c r="F2" s="2">
-        <v>0.26219999999999999</v>
+        <v>0.1983</v>
       </c>
       <c r="G2" s="2">
-        <v>0.26569999999999999</v>
+        <v>0.2001</v>
       </c>
       <c r="H2" s="2">
-        <v>0.26200000000000001</v>
+        <v>0.1996</v>
       </c>
       <c r="I2" s="2">
-        <v>0.24210000000000001</v>
+        <v>0.20169999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>9</v>
+      <c r="A3" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="B3" s="2">
-        <v>0.25009999999999999</v>
+        <v>0.2059</v>
       </c>
       <c r="C3" s="2">
-        <v>0.24590000000000001</v>
+        <v>0.16589999999999999</v>
       </c>
       <c r="D3" s="2">
-        <v>0.24590000000000001</v>
+        <v>0.20780000000000001</v>
       </c>
       <c r="E3" s="2">
-        <v>0.25750000000000001</v>
+        <v>0.15870000000000001</v>
       </c>
       <c r="F3" s="2">
-        <v>0.25009999999999999</v>
+        <v>0.16930000000000001</v>
       </c>
       <c r="G3" s="2">
-        <v>0.24590000000000001</v>
+        <v>0.16839999999999999</v>
       </c>
       <c r="H3" s="2">
-        <v>0.24590000000000001</v>
+        <v>0.1376</v>
       </c>
       <c r="I3" s="2">
-        <v>0.25750000000000001</v>
+        <v>0.15110000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
+      <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
